--- a/en/downloads/data-excel/15.3.1.1.xlsx
+++ b/en/downloads/data-excel/15.3.1.1.xlsx
@@ -201,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -246,6 +246,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,9 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
@@ -564,7 +575,7 @@
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1">
+    <row r="1" spans="1:9" ht="27.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -575,7 +586,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -586,8 +597,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:9" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,8 +623,11 @@
       <c r="H4" s="4">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I4" s="4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
@@ -638,8 +652,11 @@
       <c r="H5" s="14">
         <v>1287584</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I5" s="16">
+        <v>1287.4000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
@@ -664,8 +681,11 @@
       <c r="H6" s="9">
         <v>63332</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I6" s="17">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" customHeight="1">
       <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
@@ -675,8 +695,9 @@
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" customHeight="1">
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.25" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
@@ -701,8 +722,11 @@
       <c r="H8" s="9">
         <v>2792</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" customHeight="1">
+      <c r="I8" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="25.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
@@ -727,8 +751,11 @@
       <c r="H9" s="9">
         <v>11105</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" customHeight="1" thickBot="1">
+      <c r="I9" s="17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
       <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
@@ -752,6 +779,9 @@
       </c>
       <c r="H10" s="10">
         <v>512</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/15.3.1.1.xlsx
+++ b/en/downloads/data-excel/15.3.1.1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>15.3.1.1. Площадь пашни по причинам неиспользования</t>
   </si>
@@ -28,28 +28,13 @@
     <t>Items</t>
   </si>
   <si>
-    <t>(на начало года, гектаров)</t>
-  </si>
-  <si>
     <t>Всего</t>
   </si>
   <si>
     <t>Площадь неиспользованной пашни</t>
   </si>
   <si>
-    <t>засоления и заболоченности</t>
-  </si>
-  <si>
-    <t>отсутствия полива из-за неисправности оросительной сети</t>
-  </si>
-  <si>
-    <t>подверженной стихийным бедствиям (оползни, сели)</t>
-  </si>
-  <si>
     <t>15.3.1.1. Пайдаланбаган себептер боюнча айдоо аянты</t>
-  </si>
-  <si>
-    <t>(жылдын башына карата, гектар)</t>
   </si>
   <si>
     <t>Бардыгы</t>
@@ -74,35 +59,77 @@
     <t>15.3.1.1 Arable land by reasons for non-use</t>
   </si>
   <si>
-    <t>(at beginning of year, hectares)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>area of unused arable land</t>
-  </si>
-  <si>
     <t>Of these, because of:</t>
   </si>
   <si>
     <t>Алардын ичинен себептер боюнча:</t>
   </si>
   <si>
-    <t>salinization and waterlogging</t>
-  </si>
-  <si>
-    <t>lack of irrigation due to malfunction of the irrigation network</t>
-  </si>
-  <si>
-    <t>prone to natural disasters (landslides, mudslides)</t>
+    <t>Засоления и заболоченности</t>
+  </si>
+  <si>
+    <t>Отсутствия полива из-за неисправности оросительной сети</t>
+  </si>
+  <si>
+    <t>Подверженной стихийным бедствиям (оползни, сели)</t>
+  </si>
+  <si>
+    <t>Area of unused arable land</t>
+  </si>
+  <si>
+    <t>Salinization and waterlogging</t>
+  </si>
+  <si>
+    <t>Lack of irrigation due to malfunction of the irrigation network</t>
+  </si>
+  <si>
+    <t>Prone to natural disasters (landslides, mudslides)</t>
+  </si>
+  <si>
+    <t>Каменистости и отдаленности участков</t>
+  </si>
+  <si>
+    <t>Участоктордун аскалуулугу жана алыстыгы</t>
+  </si>
+  <si>
+    <t>Rockiness and remoteness of sites</t>
+  </si>
+  <si>
+    <t>(на начало года, тыс.гектаров)</t>
+  </si>
+  <si>
+    <t>(жылдын башына карата, миң гектар)</t>
+  </si>
+  <si>
+    <t>(at beginning of year, thousand hectares)</t>
+  </si>
+  <si>
+    <t>Экономическая нецелесообразность</t>
+  </si>
+  <si>
+    <t>Другие причины (под промышленность, расширения населенных пунктов и другие)</t>
+  </si>
+  <si>
+    <t>Economic inexpediency</t>
+  </si>
+  <si>
+    <t>Other reasons (for industry, expansion of settlements and others)</t>
+  </si>
+  <si>
+    <t>Экономикалык максатка ылайыксыздык</t>
+  </si>
+  <si>
+    <t>Башка себептер (өнөр жай, калктуу конуштарды кеңейтүү жана башкалар)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +186,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -227,31 +260,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -562,43 +592,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="3" width="35" style="7" customWidth="1"/>
     <col min="4" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="9" max="9" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -626,166 +655,286 @@
       <c r="I4" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="J4" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1280.5999999999999</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1280.5999999999999</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1287.9000000000001</v>
+      </c>
+      <c r="G5" s="14">
+        <v>1287.8</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1287.5999999999999</v>
+      </c>
+      <c r="I5" s="14">
+        <v>1287.4000000000001</v>
+      </c>
+      <c r="J5" s="14">
+        <v>1287.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="15">
+        <v>90</v>
+      </c>
+      <c r="E6" s="15">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F6" s="15">
+        <v>74.8</v>
+      </c>
+      <c r="G6" s="15">
+        <v>67.3</v>
+      </c>
+      <c r="H6" s="15">
+        <v>63.3</v>
+      </c>
+      <c r="I6" s="15">
+        <v>56.6</v>
+      </c>
+      <c r="J6" s="15">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3.3</v>
+      </c>
+      <c r="G8" s="15">
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15">
+        <v>13.8</v>
+      </c>
+      <c r="E9" s="15">
+        <v>14</v>
+      </c>
+      <c r="F9" s="15">
         <v>12</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1280570</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1280570</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1287859</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1287810</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1287584</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1287.4000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9">
-        <v>89985</v>
-      </c>
-      <c r="E6" s="9">
-        <v>81920</v>
-      </c>
-      <c r="F6" s="9">
-        <v>74796</v>
-      </c>
-      <c r="G6" s="9">
-        <v>67337</v>
-      </c>
-      <c r="H6" s="9">
-        <v>63332</v>
-      </c>
-      <c r="I6" s="17">
-        <v>56.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="G9" s="15">
+        <v>11.8</v>
+      </c>
+      <c r="H9" s="15">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="15">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J9" s="15">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="D10" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1.04</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1.6</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="15">
+        <v>44.4</v>
+      </c>
+      <c r="E11" s="15">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F11" s="15">
+        <v>36.5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>31.5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>31.7</v>
+      </c>
+      <c r="I11" s="15">
+        <v>27.2</v>
+      </c>
+      <c r="J11" s="15">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="15">
+        <v>16.5</v>
+      </c>
+      <c r="E12" s="15">
+        <v>15.1</v>
+      </c>
+      <c r="F12" s="15">
+        <v>13.7</v>
+      </c>
+      <c r="G12" s="15">
+        <v>11.6</v>
+      </c>
+      <c r="H12" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I12" s="15">
+        <v>9.4</v>
+      </c>
+      <c r="J12" s="15">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.75" thickBot="1">
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="17">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="E13" s="17">
+        <v>8.4000000000000075</v>
+      </c>
+      <c r="F13" s="17">
+        <v>8.2600000000000016</v>
+      </c>
+      <c r="G13" s="17">
+        <v>7.7000000000000046</v>
+      </c>
+      <c r="H13" s="17">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="9">
-        <v>4958</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3840</v>
-      </c>
-      <c r="F8" s="9">
-        <v>3288</v>
-      </c>
-      <c r="G8" s="9">
-        <v>3103</v>
-      </c>
-      <c r="H8" s="9">
-        <v>2792</v>
-      </c>
-      <c r="I8" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="9">
-        <v>13756</v>
-      </c>
-      <c r="E9" s="9">
-        <v>14039</v>
-      </c>
-      <c r="F9" s="9">
-        <v>11954</v>
-      </c>
-      <c r="G9" s="9">
-        <v>11774</v>
-      </c>
-      <c r="H9" s="9">
-        <v>11105</v>
-      </c>
-      <c r="I9" s="17">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10">
-        <v>394</v>
-      </c>
-      <c r="E10" s="10">
-        <v>352</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1035</v>
-      </c>
-      <c r="G10" s="12">
-        <v>1539</v>
-      </c>
-      <c r="H10" s="10">
-        <v>512</v>
-      </c>
-      <c r="I10" s="18">
-        <v>0.9</v>
+      <c r="I13" s="17">
+        <v>7.2999999999999989</v>
+      </c>
+      <c r="J13" s="17">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/en/downloads/data-excel/15.3.1.1.xlsx
+++ b/en/downloads/data-excel/15.3.1.1.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>15.3.1.1. Площадь пашни по причинам неиспользования</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Көрсөткүчтөрдүн аталышы</t>
   </si>
@@ -32,9 +29,6 @@
   </si>
   <si>
     <t>Площадь неиспользованной пашни</t>
-  </si>
-  <si>
-    <t>15.3.1.1. Пайдаланбаган себептер боюнча айдоо аянты</t>
   </si>
   <si>
     <t>Бардыгы</t>
@@ -107,22 +101,40 @@
     <t>(at beginning of year, thousand hectares)</t>
   </si>
   <si>
-    <t>Экономическая нецелесообразность</t>
-  </si>
-  <si>
     <t>Другие причины (под промышленность, расширения населенных пунктов и другие)</t>
   </si>
   <si>
-    <t>Economic inexpediency</t>
-  </si>
-  <si>
     <t>Other reasons (for industry, expansion of settlements and others)</t>
   </si>
   <si>
-    <t>Экономикалык максатка ылайыксыздык</t>
-  </si>
-  <si>
     <t>Башка себептер (өнөр жай, калктуу конуштарды кеңейтүү жана башкалар)</t>
+  </si>
+  <si>
+    <t>15.3.1.1 Пайдаланбаган себептер боюнча айдоо аянты</t>
+  </si>
+  <si>
+    <t>15.3.1.1 Площадь пашни по причинам неиспользования</t>
+  </si>
+  <si>
+    <t>Катуу жаанчыл (жазында топуракта нымдуулуктун жетишсиздиги)</t>
+  </si>
+  <si>
+    <t>Жесткая богара (недостаток количества влаги в почве весной)</t>
+  </si>
+  <si>
+    <t>Hard rainfed (lack of moisture in the soil in spring)</t>
+  </si>
+  <si>
+    <t>1 280,6</t>
+  </si>
+  <si>
+    <t>1 287,9</t>
+  </si>
+  <si>
+    <t>1 287,8</t>
+  </si>
+  <si>
+    <t>1 287,6</t>
   </si>
 </sst>
 </file>
@@ -234,7 +246,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -276,16 +288,22 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -592,9 +610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
@@ -604,38 +624,38 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27.75" customHeight="1">
+    <row r="1" spans="1:11" ht="27.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="4">
         <v>2015</v>
@@ -658,31 +678,34 @@
       <c r="J4" s="4">
         <v>2021</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+      <c r="K4" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1280.5999999999999</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="14">
         <v>1280.5999999999999</v>
       </c>
-      <c r="F5" s="14">
-        <v>1287.9000000000001</v>
-      </c>
-      <c r="G5" s="14">
-        <v>1287.8</v>
-      </c>
-      <c r="H5" s="14">
-        <v>1287.5999999999999</v>
+      <c r="F5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="I5" s="14">
         <v>1287.4000000000001</v>
@@ -690,247 +713,272 @@
       <c r="J5" s="14">
         <v>1287.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1">
+      <c r="K5" s="19">
+        <v>1286.4000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="16">
+        <v>89.2</v>
+      </c>
+      <c r="E6" s="16">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="F6" s="16">
+        <v>74</v>
+      </c>
+      <c r="G6" s="16">
+        <v>66.5</v>
+      </c>
+      <c r="H6" s="16">
+        <v>62.5</v>
+      </c>
+      <c r="I6" s="16">
+        <v>55.8</v>
+      </c>
+      <c r="J6" s="16">
+        <v>52.9</v>
+      </c>
+      <c r="K6" s="15">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="16">
+        <v>5</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3.8</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="G8" s="16">
+        <v>3.1</v>
+      </c>
+      <c r="H8" s="16">
+        <v>2.8</v>
+      </c>
+      <c r="I8" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="J8" s="16">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K8" s="15">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="15">
-        <v>90</v>
-      </c>
-      <c r="E6" s="15">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="F6" s="15">
-        <v>74.8</v>
-      </c>
-      <c r="G6" s="15">
-        <v>67.3</v>
-      </c>
-      <c r="H6" s="15">
-        <v>63.3</v>
-      </c>
-      <c r="I6" s="15">
-        <v>56.6</v>
-      </c>
-      <c r="J6" s="15">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="D9" s="16">
+        <v>13.6</v>
+      </c>
+      <c r="E9" s="16">
+        <v>13.8</v>
+      </c>
+      <c r="F9" s="16">
+        <v>11.7</v>
+      </c>
+      <c r="G9" s="16">
+        <v>11.6</v>
+      </c>
+      <c r="H9" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="I9" s="16">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J9" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="K9" s="15">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
-        <v>5</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3.8</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3.3</v>
-      </c>
-      <c r="G8" s="15">
-        <v>3.1</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2.8</v>
-      </c>
-      <c r="I8" s="15">
-        <v>2.5</v>
-      </c>
-      <c r="J8" s="15">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="D10" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.04</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44.4</v>
+      </c>
+      <c r="E11" s="16">
+        <v>40.1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>36.4</v>
+      </c>
+      <c r="G11" s="16">
+        <v>31.4</v>
+      </c>
+      <c r="H11" s="16">
+        <v>31.7</v>
+      </c>
+      <c r="I11" s="16">
+        <v>27.2</v>
+      </c>
+      <c r="J11" s="16">
+        <v>26.2</v>
+      </c>
+      <c r="K11" s="15">
         <v>22</v>
       </c>
-      <c r="D9" s="15">
-        <v>13.8</v>
-      </c>
-      <c r="E9" s="15">
-        <v>14</v>
-      </c>
-      <c r="F9" s="15">
-        <v>12</v>
-      </c>
-      <c r="G9" s="15">
-        <v>11.8</v>
-      </c>
-      <c r="H9" s="15">
-        <v>11.1</v>
-      </c>
-      <c r="I9" s="15">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="J9" s="15">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="13" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+      <c r="A12" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1.04</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1.6</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0.9</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="E12" s="16">
+        <v>15.1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>13.7</v>
+      </c>
+      <c r="G12" s="16">
+        <v>11.9</v>
+      </c>
+      <c r="H12" s="16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I12" s="16">
+        <v>9.4</v>
+      </c>
+      <c r="J12" s="16">
+        <v>8.4</v>
+      </c>
+      <c r="K12" s="15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="24.75" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="15">
-        <v>44.4</v>
-      </c>
-      <c r="E11" s="15">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="F11" s="15">
-        <v>36.5</v>
-      </c>
-      <c r="G11" s="15">
-        <v>31.5</v>
-      </c>
-      <c r="H11" s="15">
-        <v>31.7</v>
-      </c>
-      <c r="I11" s="15">
-        <v>27.2</v>
-      </c>
-      <c r="J11" s="15">
-        <v>26.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="15">
-        <v>16.5</v>
-      </c>
-      <c r="E12" s="15">
-        <v>15.1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>13.7</v>
-      </c>
-      <c r="G12" s="15">
-        <v>11.6</v>
-      </c>
-      <c r="H12" s="15">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="I12" s="15">
-        <v>9.4</v>
-      </c>
-      <c r="J12" s="15">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="17">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="E13" s="17">
-        <v>8.4000000000000075</v>
-      </c>
-      <c r="F13" s="17">
-        <v>8.2600000000000016</v>
-      </c>
-      <c r="G13" s="17">
-        <v>7.7000000000000046</v>
-      </c>
-      <c r="H13" s="17">
-        <v>7</v>
-      </c>
-      <c r="I13" s="17">
-        <v>7.2999999999999989</v>
-      </c>
-      <c r="J13" s="17">
-        <v>7.4</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="18">
+        <v>9.3000000000000043</v>
+      </c>
+      <c r="E13" s="18">
+        <v>7.9</v>
+      </c>
+      <c r="F13" s="18">
+        <v>7.860000000000003</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6.9999999999999982</v>
+      </c>
+      <c r="H13" s="18">
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="I13" s="18">
+        <v>6.5000000000000018</v>
+      </c>
+      <c r="J13" s="18">
+        <v>6.6999999999999975</v>
+      </c>
+      <c r="K13" s="18">
+        <v>9.7999999999999936</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/15.3.1.1.xlsx
+++ b/en/downloads/data-excel/15.3.1.1.xlsx
@@ -141,6 +141,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -192,13 +195,14 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -246,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -281,29 +285,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -610,11 +623,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
@@ -624,7 +635,7 @@
     <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.75" customHeight="1">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>31</v>
       </c>
@@ -635,7 +646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -646,8 +657,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" thickBot="1"/>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:13" ht="12.75" thickBot="1"/>
+    <row r="4" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +692,14 @@
       <c r="K4" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L4" s="4">
+        <v>2023</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -692,32 +709,38 @@
       <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>1280.5999999999999</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <v>1287.4000000000001</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>1287.3</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>1286.4000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+      <c r="L5" s="19">
+        <v>1285.9939999999999</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1287.0999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -727,51 +750,59 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <v>89.2</v>
       </c>
-      <c r="E6" s="16">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="E6" s="15">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="F6" s="15">
         <v>74</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>66.5</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="15">
         <v>62.5</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="15">
         <v>55.8</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="15">
         <v>52.9</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>48.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A7" s="11" t="s">
+      <c r="L6" s="20">
+        <v>42.567</v>
+      </c>
+      <c r="M6" s="14">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -781,32 +812,38 @@
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>3.8</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>3.3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>3.1</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="15">
         <v>2.8</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>2.5</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="25.5" customHeight="1">
+      <c r="L8" s="20">
+        <v>1.651</v>
+      </c>
+      <c r="M8" s="14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -816,67 +853,79 @@
       <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>13.6</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>13.8</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>11.7</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>11.6</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>11.1</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="15">
         <v>9.3000000000000007</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>8.4</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A10" s="13" t="s">
+      <c r="L9" s="20">
+        <v>6.6529999999999996</v>
+      </c>
+      <c r="M9" s="14">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0.4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>0.4</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>1.04</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>1.5</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>0.5</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>0.9</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="16">
         <v>1</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="24.75" customHeight="1">
+      <c r="L10" s="20">
+        <v>0.432</v>
+      </c>
+      <c r="M10" s="14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="24.75" customHeight="1">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -886,67 +935,79 @@
       <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>44.4</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>40.1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>36.4</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>31.4</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>31.7</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>27.2</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>26.2</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="L11" s="20">
+        <v>20.196000000000002</v>
+      </c>
+      <c r="M11" s="14">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17.25" customHeight="1">
+      <c r="A12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>16.5</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>15.1</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>13.7</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>11.9</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <v>10.199999999999999</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>9.4</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="15">
         <v>8.4</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="24.75" thickBot="1">
+      <c r="L12" s="20">
+        <v>6.3419999999999996</v>
+      </c>
+      <c r="M12" s="14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="24.75" thickBot="1">
       <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
@@ -956,29 +1017,35 @@
       <c r="C13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>9.3000000000000043</v>
       </c>
-      <c r="E13" s="18">
-        <v>7.9</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="17">
+        <v>8.7000000000000117</v>
+      </c>
+      <c r="F13" s="17">
         <v>7.860000000000003</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="17">
         <v>6.9999999999999982</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="17">
         <v>6.2000000000000028</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>6.5000000000000018</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <v>6.6999999999999975</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="17">
         <v>9.7999999999999936</v>
+      </c>
+      <c r="L13" s="21">
+        <v>7.2929999999999948</v>
+      </c>
+      <c r="M13" s="17">
+        <v>6.4</v>
       </c>
     </row>
   </sheetData>
